--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3785936.549797505</v>
+        <v>3787697.08010029</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>37.11181591693609</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368128</v>
+        <v>11.36529914368131</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U2" t="n">
-        <v>37.11181591693632</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="3">
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>35.36671903911539</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550655</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714234</v>
+        <v>26.91122581714237</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,13 +797,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>161.8193810873008</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,13 +825,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>75.61080652404884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.4337583055308</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845758</v>
+        <v>3.343082173845772</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y4" t="n">
-        <v>106.0987177174925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>94.24014755885166</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>251.1044530022292</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>227.2329102077266</v>
       </c>
       <c r="W5" t="n">
-        <v>174.971604857209</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S7" t="n">
-        <v>130.6788163414425</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T7" t="n">
-        <v>222.1670476323163</v>
+        <v>5.318697941578565</v>
       </c>
       <c r="U7" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1135,19 +1135,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>264.3930061157406</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>353.2982259468695</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.8302881234605</v>
+        <v>411.8302881234605</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.4855929438821</v>
       </c>
       <c r="H9" t="n">
-        <v>22.41150127157744</v>
+        <v>94.2918076971922</v>
       </c>
       <c r="I9" t="n">
-        <v>25.42862793155186</v>
+        <v>25.428627931552</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.1730436088544</v>
       </c>
       <c r="T9" t="n">
         <v>192.675990284458</v>
@@ -1274,10 +1274,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>112.9290253860361</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1293,10 +1293,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>219.6731278955641</v>
+        <v>283.3977786885729</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417125</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.33703994143001</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>176.76214411214</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>93.40444476188367</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1852,16 +1852,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187877</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>177.6965697803355</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2089,16 +2089,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.930370072263</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>28.75188085812095</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>104.4262124629297</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695618</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3195,13 +3195,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>115.4764219077142</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>25.52471385612679</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3325,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599955</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>214.4033048062049</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,13 +3906,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>19.91555826189101</v>
       </c>
       <c r="G43" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3979,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>32.27552175740353</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>93.40444476188321</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4327,55 +4327,55 @@
         <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678508</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058969</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079186</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123832</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985585</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020272</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652805</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201479</v>
+        <v>738.6222485201474</v>
       </c>
       <c r="S2" t="n">
-        <v>578.242639237266</v>
+        <v>578.2426392372655</v>
       </c>
       <c r="T2" t="n">
-        <v>388.822854220781</v>
+        <v>388.8228542207806</v>
       </c>
       <c r="U2" t="n">
-        <v>351.3361714764009</v>
+        <v>388.8228542207806</v>
       </c>
       <c r="V2" t="n">
-        <v>351.3361714764009</v>
+        <v>388.8228542207806</v>
       </c>
       <c r="W2" t="n">
-        <v>351.3361714764009</v>
+        <v>388.8228542207806</v>
       </c>
       <c r="X2" t="n">
-        <v>351.3361714764009</v>
+        <v>388.8228542207806</v>
       </c>
       <c r="Y2" t="n">
-        <v>161.9163864599159</v>
+        <v>199.4030692042958</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>554.7039552642607</v>
+        <v>370.0455869776404</v>
       </c>
       <c r="C3" t="n">
-        <v>554.7039552642607</v>
+        <v>370.0455869776404</v>
       </c>
       <c r="D3" t="n">
-        <v>405.7695456030094</v>
+        <v>370.0455869776404</v>
       </c>
       <c r="E3" t="n">
-        <v>246.5320905975539</v>
+        <v>210.8081319721848</v>
       </c>
       <c r="F3" t="n">
-        <v>99.99753262443889</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="G3" t="n">
-        <v>99.99753262443889</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="H3" t="n">
         <v>64.27357399906981</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
         <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772652</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546605</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017069</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652805</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843287</v>
+        <v>722.9192922843281</v>
       </c>
       <c r="S3" t="n">
-        <v>722.9192922843287</v>
+        <v>722.9192922843281</v>
       </c>
       <c r="T3" t="n">
-        <v>722.9192922843287</v>
+        <v>722.9192922843281</v>
       </c>
       <c r="U3" t="n">
-        <v>722.9192922843287</v>
+        <v>722.9192922843281</v>
       </c>
       <c r="V3" t="n">
-        <v>722.9192922843287</v>
+        <v>559.4653719941252</v>
       </c>
       <c r="W3" t="n">
-        <v>722.9192922843287</v>
+        <v>559.4653719941252</v>
       </c>
       <c r="X3" t="n">
-        <v>722.9192922843287</v>
+        <v>370.0455869776404</v>
       </c>
       <c r="Y3" t="n">
-        <v>722.9192922843287</v>
+        <v>370.0455869776404</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>505.391066339999</v>
+        <v>241.4932384301351</v>
       </c>
       <c r="C4" t="n">
-        <v>505.391066339999</v>
+        <v>241.4932384301351</v>
       </c>
       <c r="D4" t="n">
-        <v>355.2744269276633</v>
+        <v>91.37659901779938</v>
       </c>
       <c r="E4" t="n">
-        <v>207.3613333452702</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F4" t="n">
-        <v>207.3613333452702</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>38.67250990818521</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>38.67250990818521</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818521</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
         <v>187.8896250884407</v>
       </c>
       <c r="M4" t="n">
-        <v>373.5399563830977</v>
+        <v>285.9838492295953</v>
       </c>
       <c r="N4" t="n">
-        <v>559.1902876777546</v>
+        <v>471.6341805242521</v>
       </c>
       <c r="O4" t="n">
-        <v>721.9284911143047</v>
+        <v>634.3723839608023</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652805</v>
+        <v>750.10234866528</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846282</v>
+        <v>746.7254979846277</v>
       </c>
       <c r="R4" t="n">
-        <v>612.5614882768601</v>
+        <v>612.5614882768597</v>
       </c>
       <c r="S4" t="n">
-        <v>612.5614882768601</v>
+        <v>612.5614882768597</v>
       </c>
       <c r="T4" t="n">
-        <v>612.5614882768601</v>
+        <v>612.5614882768597</v>
       </c>
       <c r="U4" t="n">
-        <v>612.5614882768601</v>
+        <v>612.5614882768597</v>
       </c>
       <c r="V4" t="n">
-        <v>612.5614882768601</v>
+        <v>612.5614882768597</v>
       </c>
       <c r="W4" t="n">
-        <v>612.5614882768601</v>
+        <v>612.5614882768597</v>
       </c>
       <c r="X4" t="n">
-        <v>612.5614882768601</v>
+        <v>423.1417032603748</v>
       </c>
       <c r="Y4" t="n">
-        <v>505.391066339999</v>
+        <v>423.1417032603748</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>148.2786373207477</v>
+        <v>53.08656907948338</v>
       </c>
       <c r="C5" t="n">
-        <v>148.2786373207477</v>
+        <v>53.08656907948338</v>
       </c>
       <c r="D5" t="n">
-        <v>148.2786373207477</v>
+        <v>53.08656907948338</v>
       </c>
       <c r="E5" t="n">
-        <v>148.2786373207477</v>
+        <v>53.08656907948338</v>
       </c>
       <c r="F5" t="n">
-        <v>141.3331365715442</v>
+        <v>46.14106833027991</v>
       </c>
       <c r="G5" t="n">
-        <v>128.9212793038228</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="H5" t="n">
-        <v>128.9212793038228</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I5" t="n">
         <v>33.72921106255854</v>
@@ -4603,16 +4603,16 @@
         <v>1432.819691509514</v>
       </c>
       <c r="V5" t="n">
-        <v>1101.756804165943</v>
+        <v>1203.291499380497</v>
       </c>
       <c r="W5" t="n">
-        <v>925.0178093606812</v>
+        <v>1203.291499380497</v>
       </c>
       <c r="X5" t="n">
-        <v>925.0178093606812</v>
+        <v>829.8257411194169</v>
       </c>
       <c r="Y5" t="n">
-        <v>534.8784773848695</v>
+        <v>439.6864091436051</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>33.72921106255854</v>
       </c>
       <c r="J6" t="n">
-        <v>67.9405380666762</v>
+        <v>121.7846078506383</v>
       </c>
       <c r="K6" t="n">
-        <v>451.1842149794078</v>
+        <v>243.2077001209171</v>
       </c>
       <c r="L6" t="n">
-        <v>660.7750882322384</v>
+        <v>452.7985733737478</v>
       </c>
       <c r="M6" t="n">
-        <v>924.7146197277257</v>
+        <v>716.738104869235</v>
       </c>
       <c r="N6" t="n">
-        <v>1210.048490161058</v>
+        <v>1002.071975302568</v>
       </c>
       <c r="O6" t="n">
-        <v>1448.853441912517</v>
+        <v>1240.876927054026</v>
       </c>
       <c r="P6" t="n">
-        <v>1621.182402866226</v>
+        <v>1413.205888007736</v>
       </c>
       <c r="Q6" t="n">
         <v>1686.460553127927</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>647.5850744831047</v>
+        <v>967.6269354393954</v>
       </c>
       <c r="C7" t="n">
-        <v>478.6488915551978</v>
+        <v>798.6907525114885</v>
       </c>
       <c r="D7" t="n">
-        <v>328.532252142862</v>
+        <v>648.5741130991528</v>
       </c>
       <c r="E7" t="n">
-        <v>180.6191585604689</v>
+        <v>500.6610195167597</v>
       </c>
       <c r="F7" t="n">
-        <v>33.72921106255854</v>
+        <v>353.7710720188493</v>
       </c>
       <c r="G7" t="n">
-        <v>33.72921106255854</v>
+        <v>185.4492996119732</v>
       </c>
       <c r="H7" t="n">
         <v>33.72921106255854</v>
@@ -4749,28 +4749,28 @@
         <v>1293.13166510086</v>
       </c>
       <c r="R7" t="n">
-        <v>1293.13166510086</v>
+        <v>1175.471604442305</v>
       </c>
       <c r="S7" t="n">
-        <v>1161.132860715565</v>
+        <v>972.9993576026061</v>
       </c>
       <c r="T7" t="n">
-        <v>936.7217014910027</v>
+        <v>967.6269354393954</v>
       </c>
       <c r="U7" t="n">
-        <v>647.5850744831047</v>
+        <v>967.6269354393954</v>
       </c>
       <c r="V7" t="n">
-        <v>647.5850744831047</v>
+        <v>967.6269354393954</v>
       </c>
       <c r="W7" t="n">
-        <v>647.5850744831047</v>
+        <v>967.6269354393954</v>
       </c>
       <c r="X7" t="n">
-        <v>647.5850744831047</v>
+        <v>967.6269354393954</v>
       </c>
       <c r="Y7" t="n">
-        <v>647.5850744831047</v>
+        <v>967.6269354393954</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1147.345943703105</v>
+        <v>1478.408831046666</v>
       </c>
       <c r="C8" t="n">
-        <v>778.3834267626935</v>
+        <v>1211.345188505514</v>
       </c>
       <c r="D8" t="n">
-        <v>420.117728155943</v>
+        <v>853.0794898987633</v>
       </c>
       <c r="E8" t="n">
-        <v>63.25083326011514</v>
+        <v>467.291237300519</v>
       </c>
       <c r="F8" t="n">
-        <v>56.30533251091168</v>
+        <v>460.3457365513156</v>
       </c>
       <c r="G8" t="n">
-        <v>44.35554652761824</v>
+        <v>44.35554652761804</v>
       </c>
       <c r="H8" t="n">
-        <v>44.35554652761824</v>
+        <v>44.35554652761804</v>
       </c>
       <c r="I8" t="n">
-        <v>44.35554652761824</v>
+        <v>44.35554652761804</v>
       </c>
       <c r="J8" t="n">
-        <v>156.8927045872711</v>
+        <v>156.8927045872696</v>
       </c>
       <c r="K8" t="n">
-        <v>376.2952505158996</v>
+        <v>376.2952505158974</v>
       </c>
       <c r="L8" t="n">
-        <v>685.3852714985271</v>
+        <v>685.3852714985237</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.976912556942</v>
+        <v>1060.976912556938</v>
       </c>
       <c r="N8" t="n">
-        <v>1447.259827415487</v>
+        <v>1447.259827415481</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.680568975108</v>
+        <v>1798.6805689751</v>
       </c>
       <c r="P8" t="n">
-        <v>2064.109040631086</v>
+        <v>2064.109040631077</v>
       </c>
       <c r="Q8" t="n">
-        <v>2215.262022208124</v>
+        <v>2215.262022208114</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.777326380912</v>
+        <v>2217.777326380902</v>
       </c>
       <c r="S8" t="n">
-        <v>2217.777326380912</v>
+        <v>2217.777326380902</v>
       </c>
       <c r="T8" t="n">
-        <v>2217.777326380912</v>
+        <v>2217.777326380902</v>
       </c>
       <c r="U8" t="n">
-        <v>2217.777326380912</v>
+        <v>2217.777326380902</v>
       </c>
       <c r="V8" t="n">
-        <v>1886.714439037341</v>
+        <v>2217.777326380902</v>
       </c>
       <c r="W8" t="n">
-        <v>1533.945783767227</v>
+        <v>1865.008671110788</v>
       </c>
       <c r="X8" t="n">
-        <v>1533.945783767227</v>
+        <v>1865.008671110788</v>
       </c>
       <c r="Y8" t="n">
-        <v>1533.945783767227</v>
+        <v>1865.008671110788</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>721.8383612800108</v>
+        <v>931.298865693644</v>
       </c>
       <c r="C9" t="n">
-        <v>547.3853319988838</v>
+        <v>756.845836412517</v>
       </c>
       <c r="D9" t="n">
-        <v>398.4509223376325</v>
+        <v>607.9114267512657</v>
       </c>
       <c r="E9" t="n">
-        <v>239.213467332177</v>
+        <v>448.6739717458101</v>
       </c>
       <c r="F9" t="n">
-        <v>92.67890935906198</v>
+        <v>302.1394137726951</v>
       </c>
       <c r="G9" t="n">
-        <v>92.67890935906198</v>
+        <v>165.2852794859455</v>
       </c>
       <c r="H9" t="n">
-        <v>70.04102928676153</v>
+        <v>70.04102928676147</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35554652761824</v>
+        <v>44.35554652761804</v>
       </c>
       <c r="J9" t="n">
-        <v>217.3941849412454</v>
+        <v>217.3941849412448</v>
       </c>
       <c r="K9" t="n">
-        <v>639.7656222937653</v>
+        <v>639.7656222937641</v>
       </c>
       <c r="L9" t="n">
-        <v>901.9685981234416</v>
+        <v>901.9685981234394</v>
       </c>
       <c r="M9" t="n">
-        <v>1227.303971773547</v>
+        <v>1227.303971773544</v>
       </c>
       <c r="N9" t="n">
-        <v>1575.6586496143</v>
+        <v>1575.658649614296</v>
       </c>
       <c r="O9" t="n">
-        <v>1872.115328029452</v>
+        <v>1872.115328029447</v>
       </c>
       <c r="P9" t="n">
-        <v>2121.568509855268</v>
+        <v>2090.714882296774</v>
       </c>
       <c r="Q9" t="n">
-        <v>2217.777326380912</v>
+        <v>2217.777326380902</v>
       </c>
       <c r="R9" t="n">
-        <v>2217.777326380912</v>
+        <v>2217.777326380902</v>
       </c>
       <c r="S9" t="n">
-        <v>2217.777326380912</v>
+        <v>2079.218696472968</v>
       </c>
       <c r="T9" t="n">
-        <v>2023.155113972368</v>
+        <v>1884.596484064425</v>
       </c>
       <c r="U9" t="n">
-        <v>1795.05496223051</v>
+        <v>1656.496332322566</v>
       </c>
       <c r="V9" t="n">
-        <v>1559.902853998767</v>
+        <v>1421.344224090823</v>
       </c>
       <c r="W9" t="n">
-        <v>1305.665497270566</v>
+        <v>1421.344224090823</v>
       </c>
       <c r="X9" t="n">
-        <v>1097.813997065033</v>
+        <v>1307.274501478666</v>
       </c>
       <c r="Y9" t="n">
-        <v>890.0536983000788</v>
+        <v>1099.514202713712</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>363.4083688678609</v>
+        <v>44.35554652761804</v>
       </c>
       <c r="C10" t="n">
-        <v>194.472185939954</v>
+        <v>44.35554652761804</v>
       </c>
       <c r="D10" t="n">
-        <v>44.35554652761824</v>
+        <v>44.35554652761804</v>
       </c>
       <c r="E10" t="n">
-        <v>44.35554652761824</v>
+        <v>44.35554652761804</v>
       </c>
       <c r="F10" t="n">
-        <v>44.35554652761824</v>
+        <v>44.35554652761804</v>
       </c>
       <c r="G10" t="n">
-        <v>44.35554652761824</v>
+        <v>44.35554652761804</v>
       </c>
       <c r="H10" t="n">
-        <v>44.35554652761824</v>
+        <v>44.35554652761804</v>
       </c>
       <c r="I10" t="n">
-        <v>44.35554652761824</v>
+        <v>44.35554652761804</v>
       </c>
       <c r="J10" t="n">
-        <v>60.95254262692013</v>
+        <v>60.95254262691969</v>
       </c>
       <c r="K10" t="n">
-        <v>218.0633423274028</v>
+        <v>218.0633423274019</v>
       </c>
       <c r="L10" t="n">
-        <v>474.6375091918432</v>
+        <v>474.6375091918419</v>
       </c>
       <c r="M10" t="n">
-        <v>755.5481168921705</v>
+        <v>755.5481168921685</v>
       </c>
       <c r="N10" t="n">
-        <v>1035.213914629317</v>
+        <v>1035.213914629315</v>
       </c>
       <c r="O10" t="n">
-        <v>1277.514248546129</v>
+        <v>1277.514248546126</v>
       </c>
       <c r="P10" t="n">
-        <v>1461.323360659238</v>
+        <v>1461.323360659235</v>
       </c>
       <c r="Q10" t="n">
-        <v>1505.148182155966</v>
+        <v>1505.148182155963</v>
       </c>
       <c r="R10" t="n">
-        <v>1505.148182155966</v>
+        <v>1505.148182155963</v>
       </c>
       <c r="S10" t="n">
-        <v>1505.148182155966</v>
+        <v>1505.148182155963</v>
       </c>
       <c r="T10" t="n">
-        <v>1505.148182155966</v>
+        <v>1505.148182155963</v>
       </c>
       <c r="U10" t="n">
-        <v>1283.256133776609</v>
+        <v>1218.887799642253</v>
       </c>
       <c r="V10" t="n">
-        <v>1283.256133776609</v>
+        <v>964.2033114363658</v>
       </c>
       <c r="W10" t="n">
-        <v>993.8389637396481</v>
+        <v>674.7861413994052</v>
       </c>
       <c r="X10" t="n">
-        <v>765.8494128416307</v>
+        <v>446.7965905013879</v>
       </c>
       <c r="Y10" t="n">
-        <v>545.0568336981006</v>
+        <v>226.0040113578577</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192667</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111723</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5056,37 +5056,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5132,7 +5132,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708871</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429802</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,19 +5266,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5290,31 +5290,31 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876697</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597628</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9631215597628</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>411.9631215597628</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>411.9631215597628</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258107</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602305</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396418</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359457</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614396</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179095</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168622</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
@@ -5521,7 +5521,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5530,37 +5530,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,22 +5588,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
         <v>2001.151557821488</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578602</v>
@@ -5670,55 +5670,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
         <v>1072.713683962606</v>
@@ -5843,7 +5843,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400721</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>513.8536007400721</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>513.8536007400721</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429803</v>
@@ -5907,55 +5907,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,52 +5977,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2341.482060890433</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2052.406834234631</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6220,37 +6220,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075824</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6442,31 +6442,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
@@ -6478,34 +6478,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6554,7 +6554,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6694,28 +6694,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6739,10 +6739,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6791,7 +6791,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>696.7084350851671</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>527.7722521572603</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>377.6556127449245</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>1099.149479058937</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>878.3568999154069</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6931,10 +6931,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
@@ -6946,31 +6946,31 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7028,7 +7028,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7156,10 +7156,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7168,55 +7168,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,19 +7399,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075811</v>
@@ -7420,40 +7420,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998286</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E43" t="n">
-        <v>194.8007783998286</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F43" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="44">
@@ -7627,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7642,43 +7642,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466574</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,16 +7721,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7739,7 +7739,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>983.3556038098237</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C46" t="n">
-        <v>814.4194208819168</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D46" t="n">
-        <v>664.3027814695811</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>2157.887856924458</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1903.203368718571</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1613.786198681611</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1385.796647783593</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y46" t="n">
-        <v>1165.004068640063</v>
+        <v>762.547769317909</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457085</v>
+        <v>82.97369176944363</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711118</v>
+        <v>163.8604018711117</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>46.5660510377764</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>8.985656744431139</v>
+        <v>63.37360602116058</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>31.16528036210818</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>31.16528036210499</v>
       </c>
       <c r="R9" t="n">
-        <v>30.32522655688319</v>
+        <v>30.32522655688345</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23469,13 +23469,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>75.37549921168795</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>72.11969353038518</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>39.7088805469528</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>116.6691671648103</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>112.9792378643585</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>35.40333084624569</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>30.95754073885493</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>191.8807364711615</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="G43" t="n">
-        <v>65.54986409393069</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26028,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>114.1584408891656</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>72.11969353038563</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>660504.0021912182</v>
+        <v>660504.0021912181</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>638957.3819900256</v>
+        <v>638957.3819900258</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>638957.3819900258</v>
+        <v>638957.3819900256</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>638957.3819900256</v>
+        <v>638957.3819900258</v>
       </c>
     </row>
     <row r="10">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>638957.3819900258</v>
+        <v>638957.3819900256</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176757</v>
+        <v>800515.7256176758</v>
       </c>
       <c r="C2" t="n">
         <v>800515.7256176766</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="E2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="F2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="G2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="H2" t="n">
         <v>786967.9346977555</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="K2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="H2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
         <v>786967.9346977556</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="N2" t="n">
         <v>786967.934697756</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>786967.934697756</v>
       </c>
-      <c r="L2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="M2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="N2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="O2" t="n">
-        <v>786967.9346977558</v>
-      </c>
       <c r="P2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977556</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>259123.8056778326</v>
+        <v>259123.8056778327</v>
       </c>
       <c r="D3" t="n">
-        <v>138712.7919296898</v>
+        <v>138712.7919296874</v>
       </c>
       <c r="E3" t="n">
-        <v>589678.7921745759</v>
+        <v>589678.7921745779</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854462</v>
       </c>
       <c r="K3" t="n">
-        <v>60247.15959153561</v>
+        <v>60247.15959153564</v>
       </c>
       <c r="L3" t="n">
-        <v>33617.87336484278</v>
+        <v>33617.8733648421</v>
       </c>
       <c r="M3" t="n">
-        <v>154073.8510167277</v>
+        <v>154073.8510167283</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,34 +26423,34 @@
         <v>209253.9124355573</v>
       </c>
       <c r="D4" t="n">
-        <v>170385.524429619</v>
+        <v>170385.5244296197</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685497</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685501</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685497</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685496</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685501</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685499</v>
       </c>
       <c r="L4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685501</v>
       </c>
       <c r="N4" t="n">
         <v>14216.75207685505</v>
@@ -26459,7 +26459,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="P4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685501</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
         <v>75611.38525919238</v>
       </c>
       <c r="D5" t="n">
-        <v>86168.04029969304</v>
+        <v>86168.04029969283</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-125996.1539779899</v>
+        <v>-125996.1539779895</v>
       </c>
       <c r="C6" t="n">
-        <v>256526.6222450943</v>
+        <v>256526.6222450942</v>
       </c>
       <c r="D6" t="n">
-        <v>405249.3689586744</v>
+        <v>405249.3689586762</v>
       </c>
       <c r="E6" t="n">
-        <v>81602.48136806063</v>
+        <v>81915.12269697982</v>
       </c>
       <c r="F6" t="n">
-        <v>671281.2735426365</v>
+        <v>671593.914871558</v>
       </c>
       <c r="G6" t="n">
-        <v>671281.2735426368</v>
+        <v>671593.9148715578</v>
       </c>
       <c r="H6" t="n">
-        <v>671281.2735426368</v>
+        <v>671593.9148715577</v>
       </c>
       <c r="I6" t="n">
-        <v>671281.273542637</v>
+        <v>671593.9148715578</v>
       </c>
       <c r="J6" t="n">
-        <v>622216.3288140922</v>
+        <v>622528.9701430132</v>
       </c>
       <c r="K6" t="n">
-        <v>611034.1139511013</v>
+        <v>611346.7552800223</v>
       </c>
       <c r="L6" t="n">
-        <v>637663.4001777939</v>
+        <v>637976.0415067157</v>
       </c>
       <c r="M6" t="n">
-        <v>517207.4225259091</v>
+        <v>517520.0638548295</v>
       </c>
       <c r="N6" t="n">
-        <v>671281.2735426368</v>
+        <v>671593.9148715581</v>
       </c>
       <c r="O6" t="n">
-        <v>671281.2735426368</v>
+        <v>671593.9148715581</v>
       </c>
       <c r="P6" t="n">
-        <v>671281.2735426368</v>
+        <v>671593.9148715578</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
         <v>749.98095649761</v>
       </c>
       <c r="D3" t="n">
-        <v>863.7717861790446</v>
+        <v>863.7717861790427</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
         <v>421.6151382819818</v>
       </c>
       <c r="D4" t="n">
-        <v>554.4443315952279</v>
+        <v>554.4443315952254</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="I4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="F4" t="n">
+      <c r="J4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="G4" t="n">
+      <c r="K4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>201.5110155847052</v>
+        <v>201.5110155847053</v>
       </c>
       <c r="D3" t="n">
-        <v>113.7908296814346</v>
+        <v>113.7908296814327</v>
       </c>
       <c r="E3" t="n">
-        <v>504.2037141626294</v>
+        <v>504.2037141626311</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>234.0895511156617</v>
+        <v>234.0895511156618</v>
       </c>
       <c r="D4" t="n">
-        <v>132.8291933132462</v>
+        <v>132.8291933132437</v>
       </c>
       <c r="E4" t="n">
-        <v>618.2639565044207</v>
+        <v>618.2639565044229</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,19 +27032,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-4.149445193983239e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>234.0895511156617</v>
+        <v>234.0895511156618</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132462</v>
+        <v>132.8291933132435</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044207</v>
+        <v>618.2639565044232</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>234.0895511156617</v>
+        <v>234.0895511156618</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132462</v>
+        <v>132.8291933132437</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044207</v>
+        <v>618.2639565044229</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>345.6220257465445</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988666</v>
+        <v>25.91829388988677</v>
       </c>
       <c r="U2" t="n">
-        <v>214.057444648094</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897335</v>
+        <v>198.7123514897336</v>
       </c>
     </row>
     <row r="3">
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27475,7 +27475,7 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>65.4750383116243</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27517,13 +27517,13 @@
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>70.98120606212444</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715747</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,13 +27545,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>70.82315612252033</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
@@ -27560,7 +27560,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553082</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>38.18406822271714</v>
       </c>
       <c r="Y4" t="n">
-        <v>112.4859356346023</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27636,7 +27636,7 @@
         <v>308.5974454495113</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>94.24014755885166</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,13 +27675,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>100.5193482624083</v>
       </c>
       <c r="W5" t="n">
-        <v>174.269363860204</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>114.7793764994862</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>69.768708029859</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>216.8483496907377</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>100.8798856552669</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>28.63214412539224</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>303.9125797832802</v>
+        <v>303.9125797832803</v>
       </c>
       <c r="I8" t="n">
-        <v>76.60428439787273</v>
+        <v>76.60428439787304</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.8916290734615</v>
+        <v>129.8916290734617</v>
       </c>
       <c r="T8" t="n">
         <v>207.895202352076</v>
@@ -27912,7 +27912,7 @@
         <v>251.0678569565025</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27946,10 +27946,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4855929438821</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>71.88030642561472</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.1730436088543</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -27994,10 +27994,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>92.84395981744142</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28013,10 +28013,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28031,7 +28031,7 @@
         <v>148.3785035421428</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6085557685652</v>
+        <v>108.6085557685653</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2570757305866</v>
+        <v>107.2570757305868</v>
       </c>
       <c r="S10" t="n">
         <v>196.8715076418046</v>
       </c>
       <c r="T10" t="n">
-        <v>221.290298616738</v>
+        <v>221.2902986167381</v>
       </c>
       <c r="U10" t="n">
-        <v>66.5609403016305</v>
+        <v>2.836289508621633</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-6.843216144717915e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-6.843216144717915e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-6.843216144717915e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-6.843216144717915e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.025106900874578e-12</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.843216144717915e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-6.843216144717915e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-6.843216144717915e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-6.843216144717915e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-6.843216144717915e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-6.843216144717915e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-6.843216144717915e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-6.843216144717915e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-6.843216144717915e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.843216144717915e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-6.843216144717915e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-6.843216144717915e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-6.843216144717915e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-6.843216144717915e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.843216144717915e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-6.843216144717915e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-6.843216144717915e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-6.843216144717915e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-6.843216144717915e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-6.843216144717915e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-6.843216144717915e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-6.843216144717915e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-6.843216144717915e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-6.843216144717915e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-6.843216144717915e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-6.843216144717915e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-6.843216144717915e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-6.843216144717915e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.040056929468847e-12</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-6.843216144717915e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-6.843216144717915e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-6.843216144717915e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-6.843216144717915e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-6.843216144717915e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-6.843216144717915e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-6.843216144717915e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-6.843216144717915e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-6.843216144717915e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-6.843216144717915e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-6.843216144717915e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-6.843216144717915e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.843216144717915e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-6.843216144717915e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-6.843216144717915e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-6.843216144717915e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-6.843216144717915e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-6.843216144717915e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-6.843216144717915e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-6.843216144717915e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-6.843216144717915e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29991,7 +29991,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30699,7 +30699,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -31047,28 +31047,28 @@
         <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q2" t="n">
         <v>238.1048576151093</v>
@@ -31077,13 +31077,13 @@
         <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,13 +31120,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31138,7 +31138,7 @@
         <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N3" t="n">
         <v>306.8275379829655</v>
@@ -31147,22 +31147,22 @@
         <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S3" t="n">
         <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31223,25 +31223,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.472449391674548</v>
+        <v>3.472449391674541</v>
       </c>
       <c r="H8" t="n">
-        <v>35.56222233248698</v>
+        <v>35.5622223324869</v>
       </c>
       <c r="I8" t="n">
-        <v>133.8716051725332</v>
+        <v>133.8716051725329</v>
       </c>
       <c r="J8" t="n">
-        <v>294.719801556638</v>
+        <v>294.7198015566373</v>
       </c>
       <c r="K8" t="n">
-        <v>441.7085843062217</v>
+        <v>441.7085843062208</v>
       </c>
       <c r="L8" t="n">
-        <v>547.9785573766818</v>
+        <v>547.9785573766806</v>
       </c>
       <c r="M8" t="n">
-        <v>609.731729245874</v>
+        <v>609.7317292458727</v>
       </c>
       <c r="N8" t="n">
-        <v>619.5978260799694</v>
+        <v>619.5978260799681</v>
       </c>
       <c r="O8" t="n">
-        <v>585.0686574415056</v>
+        <v>585.0686574415042</v>
       </c>
       <c r="P8" t="n">
-        <v>499.3425630845401</v>
+        <v>499.3425630845389</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9854692451952</v>
+        <v>374.9854692451943</v>
       </c>
       <c r="R8" t="n">
-        <v>218.1262490997766</v>
+        <v>218.1262490997761</v>
       </c>
       <c r="S8" t="n">
-        <v>79.12844051278385</v>
+        <v>79.12844051278368</v>
       </c>
       <c r="T8" t="n">
-        <v>15.20064721205534</v>
+        <v>15.20064721205531</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2777959513339638</v>
+        <v>0.2777959513339632</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857924219328511</v>
+        <v>1.857924219328507</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94363653930431</v>
+        <v>17.94363653930427</v>
       </c>
       <c r="I9" t="n">
-        <v>63.96800491986322</v>
+        <v>63.96800491986308</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5330947743661</v>
+        <v>175.5330947743657</v>
       </c>
       <c r="K9" t="n">
-        <v>300.0140174693763</v>
+        <v>300.0140174693756</v>
       </c>
       <c r="L9" t="n">
-        <v>403.4058705169209</v>
+        <v>403.4058705169199</v>
       </c>
       <c r="M9" t="n">
-        <v>470.7556234675793</v>
+        <v>470.7556234675782</v>
       </c>
       <c r="N9" t="n">
-        <v>483.2151240436903</v>
+        <v>483.2151240436892</v>
       </c>
       <c r="O9" t="n">
-        <v>442.0474347627796</v>
+        <v>442.0474347627786</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7820379873891</v>
+        <v>354.7820379873883</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.1623968391973</v>
+        <v>237.1623968391968</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3542774070808</v>
+        <v>115.3542774070805</v>
       </c>
       <c r="S9" t="n">
-        <v>34.51012749498351</v>
+        <v>34.51012749498343</v>
       </c>
       <c r="T9" t="n">
-        <v>7.488738410363601</v>
+        <v>7.488738410363585</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222318565347705</v>
+        <v>0.1222318565347702</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.55762125376549</v>
+        <v>1.557621253765487</v>
       </c>
       <c r="H10" t="n">
-        <v>13.84866896529682</v>
+        <v>13.84866896529679</v>
       </c>
       <c r="I10" t="n">
-        <v>46.84191915869312</v>
+        <v>46.84191915869301</v>
       </c>
       <c r="J10" t="n">
-        <v>110.1238226412201</v>
+        <v>110.1238226412199</v>
       </c>
       <c r="K10" t="n">
-        <v>180.9672693011178</v>
+        <v>180.9672693011174</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5757998552803</v>
+        <v>231.5757998552798</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1642116243486</v>
+        <v>244.164211624348</v>
       </c>
       <c r="N10" t="n">
-        <v>238.3585324057683</v>
+        <v>238.3585324057678</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1626841231441</v>
+        <v>220.1626841231436</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3872105463279</v>
+        <v>188.3872105463275</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.4295397130357</v>
+        <v>130.4295397130354</v>
       </c>
       <c r="R10" t="n">
-        <v>70.03631564658284</v>
+        <v>70.03631564658268</v>
       </c>
       <c r="S10" t="n">
-        <v>27.14509039516767</v>
+        <v>27.14509039516761</v>
       </c>
       <c r="T10" t="n">
-        <v>6.655290811543456</v>
+        <v>6.655290811543441</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08496115929629956</v>
+        <v>0.08496115929629937</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565758</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>446.0127311990634</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565758</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>444.2274915982894</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L2" t="n">
         <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
         <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880153</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663201</v>
+        <v>99.08507489005518</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>28.45844197068258</v>
+        <v>116.8989542469473</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>34.55689596375521</v>
+        <v>88.94484524048465</v>
       </c>
       <c r="K6" t="n">
-        <v>387.1148251643754</v>
+        <v>122.6495881517968</v>
       </c>
       <c r="L6" t="n">
         <v>211.707952780637</v>
@@ -35035,7 +35035,7 @@
         <v>174.0696575289995</v>
       </c>
       <c r="Q6" t="n">
-        <v>65.9375255168695</v>
+        <v>276.0148132527186</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6738970299517</v>
+        <v>113.673897029951</v>
       </c>
       <c r="K8" t="n">
-        <v>221.6187332612412</v>
+        <v>221.6187332612402</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2121424066946</v>
+        <v>312.2121424066933</v>
       </c>
       <c r="M8" t="n">
-        <v>379.3854960186013</v>
+        <v>379.3854960186</v>
       </c>
       <c r="N8" t="n">
-        <v>390.1847624833785</v>
+        <v>390.1847624833771</v>
       </c>
       <c r="O8" t="n">
-        <v>354.9704460198188</v>
+        <v>354.9704460198175</v>
       </c>
       <c r="P8" t="n">
-        <v>268.1095673292705</v>
+        <v>268.1095673292694</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6797793707457</v>
+        <v>152.6797793707449</v>
       </c>
       <c r="R8" t="n">
-        <v>2.540711285644448</v>
+        <v>2.540711285643937</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>174.7865034481082</v>
+        <v>174.7865034481078</v>
       </c>
       <c r="K9" t="n">
-        <v>426.6378155075959</v>
+        <v>426.6378155075952</v>
       </c>
       <c r="L9" t="n">
-        <v>264.8514907370467</v>
+        <v>264.8514907370458</v>
       </c>
       <c r="M9" t="n">
-        <v>328.6215895455609</v>
+        <v>328.6215895455599</v>
       </c>
       <c r="N9" t="n">
-        <v>351.873411960357</v>
+        <v>351.873411960356</v>
       </c>
       <c r="O9" t="n">
-        <v>299.4511903183351</v>
+        <v>299.4511903183341</v>
       </c>
       <c r="P9" t="n">
-        <v>251.9729109351671</v>
+        <v>220.8076305730581</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.18062275317581</v>
+        <v>128.3459031152803</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.76464252454737</v>
+        <v>16.76464252454713</v>
       </c>
       <c r="K10" t="n">
-        <v>158.697777475235</v>
+        <v>158.6977774752345</v>
       </c>
       <c r="L10" t="n">
-        <v>259.1658251155964</v>
+        <v>259.1658251155959</v>
       </c>
       <c r="M10" t="n">
-        <v>283.7480885861892</v>
+        <v>283.7480885861886</v>
       </c>
       <c r="N10" t="n">
-        <v>282.4907047849969</v>
+        <v>282.4907047849964</v>
       </c>
       <c r="O10" t="n">
-        <v>244.7478120371838</v>
+        <v>244.7478120371833</v>
       </c>
       <c r="P10" t="n">
-        <v>185.6657698112214</v>
+        <v>185.665769811221</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.26749646134134</v>
+        <v>44.26749646134105</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121313</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>303.878697277045</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121313</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>302.093457676271</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
